--- a/devdata/work-items-in/test-input/input.xlsx
+++ b/devdata/work-items-in/test-input/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\split-orders-file-test-input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\test-input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637729C9-6090-4D83-BCA1-F0A501E4EA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8EEBC-6E62-4E59-9F1A-DA0BBE0BF1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>GLOBAL CRISIS</t>
-  </si>
-  <si>
-    <t>GAMES</t>
   </si>
   <si>
     <t>PARK</t>
@@ -434,7 +425,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,9 +529,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -568,9 +557,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -598,9 +585,6 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/devdata/work-items-in/test-input/input.xlsx
+++ b/devdata/work-items-in/test-input/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\devdata\work-items-in\test-input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8EEBC-6E62-4E59-9F1A-DA0BBE0BF1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D966224-4B9C-47B4-91BB-851EBB371105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Stars</t>
   </si>
   <si>
     <t>NBA</t>
   </si>
   <si>
-    <t>PARK</t>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>NYC</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +541,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -557,7 +571,9 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -585,6 +601,9 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -612,9 +631,11 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -839,7 +860,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>

--- a/devdata/work-items-in/test-input/input.xlsx
+++ b/devdata/work-items-in/test-input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D966224-4B9C-47B4-91BB-851EBB371105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE705E7-9324-48FA-8853-FA3A1E72F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33975" yWindow="3195" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -30,29 +30,29 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Rain</t>
+    <t>Interest Rates</t>
   </si>
   <si>
-    <t>Stars</t>
+    <t>Stock Market</t>
   </si>
   <si>
-    <t>NBA</t>
+    <t>Digital Currency</t>
   </si>
   <si>
-    <t>NASA</t>
+    <t>Consumer Spending</t>
   </si>
   <si>
-    <t>Games</t>
+    <t>Debt Management</t>
   </si>
   <si>
-    <t>NYC</t>
+    <t>Government Stimulus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -85,6 +85,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,6 +125,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
@@ -480,8 +489,8 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -510,12 +519,12 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -540,12 +549,12 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -570,8 +579,8 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
@@ -600,8 +609,8 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
@@ -630,12 +639,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -660,10 +669,10 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
+    <row r="8" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -688,10 +697,10 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -716,11 +725,11 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -744,11 +753,11 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:26" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -860,7 +869,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -912,7 +921,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -940,7 +949,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -968,7 +977,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -996,7 +1005,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3181,9 +3190,9 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -3209,9 +3218,9 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -3237,9 +3246,9 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -3265,9 +3274,9 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -28352,120 +28361,8 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-    </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
